--- a/Integration Services Project2/notes/zone-location-mapping_EC.xlsx
+++ b/Integration Services Project2/notes/zone-location-mapping_EC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C2FF61-99B5-46ED-87E0-133A6251663E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC274FF7-46A1-4678-B910-22AC1FE02825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone-location-mapping.xlsx" sheetId="1" r:id="rId1"/>
@@ -3475,12 +3475,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="54.109375" customWidth="1"/>
